--- a/Images/Rohan Fernandez BoM.xlsx
+++ b/Images/Rohan Fernandez BoM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohan\Documents\EGR 314\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE745A0E-2AF9-4F88-ACEB-0D6F2A983615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58FC670-FAB0-4353-B39F-CAC4DF7D6E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
   <si>
     <t>Part Name/Description</t>
   </si>
@@ -86,15 +86,9 @@
     <t>Schematic Reference Designators</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
     <t>PRLTA 109</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
   </si>
   <si>
     <t>LM2575-3.3WU-TR</t>
-  </si>
-  <si>
-    <t>V1</t>
   </si>
   <si>
     <t>Test Points</t>
@@ -351,25 +342,55 @@
     <t>497-6610-1-ND</t>
   </si>
   <si>
-    <t>Prototype total</t>
-  </si>
-  <si>
-    <t>Current Order Total:</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
-    <t>B1, B2, B3, B4, B5, B6</t>
-  </si>
-  <si>
     <t>R3, R4, R5, R6, R7, R8, R9, R10, R11, R12</t>
   </si>
   <si>
     <t>TP1, TP2, TP3, TP4, TP5, TP6</t>
   </si>
   <si>
-    <t>J2,J4. J5, J6,J7</t>
+    <t>Songhe 128x64 I2C OLED (replacement for original screen)</t>
+  </si>
+  <si>
+    <t>Songhe</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>B085WCRS7C</t>
+  </si>
+  <si>
+    <t>1 pack</t>
+  </si>
+  <si>
+    <t>DS1</t>
+  </si>
+  <si>
+    <t>S1.S2.S3,S4,S6</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>J2,J4. J5, J6,J10</t>
+  </si>
+  <si>
+    <t>Order Total Cost:</t>
+  </si>
+  <si>
+    <t>Prototype total (with new OLED instead)</t>
+  </si>
+  <si>
+    <t>Provided during class, replaces old LCD on final Board</t>
+  </si>
+  <si>
+    <t>Note: OLED is the same as the ones provided in class and replaced the LCD that was originally ordered</t>
   </si>
 </sst>
 </file>
@@ -436,7 +457,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +473,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,17 +508,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -499,14 +522,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -542,23 +563,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -575,58 +579,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -635,7 +590,24 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -655,10 +627,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,7 +953,7 @@
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1006,32 +974,32 @@
     <col min="15" max="15" width="12.5546875" customWidth="1"/>
     <col min="16" max="16" width="6.88671875" customWidth="1"/>
     <col min="17" max="17" width="36.21875" customWidth="1"/>
-    <col min="18" max="18" width="29.33203125" customWidth="1"/>
+    <col min="18" max="18" width="48.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36.6" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="A1" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="1:18" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1083,12 +1051,12 @@
         <v>16</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>36</v>
+      <c r="A3" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -1097,53 +1065,53 @@
         <v>14.46</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D102" si="0">B3*C3</f>
+        <f t="shared" ref="D3:D10" si="0">B3*C3</f>
         <v>14.46</v>
       </c>
       <c r="E3" s="4">
         <v>10.41</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F102" si="1">B3*E3</f>
+        <f t="shared" ref="F3:F16" si="1">B3*E3</f>
         <v>10.41</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="M3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" s="5">
         <v>45716</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>30</v>
+      <c r="O3" s="2">
+        <v>2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>35</v>
+      <c r="A4" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
@@ -1163,42 +1131,42 @@
         <v>3.5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
         <v>3</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="17">
         <v>45716</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>30</v>
+      <c r="O4" s="2">
+        <v>3</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>38</v>
+      <c r="A5" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1218,22 +1186,22 @@
         <v>1.2876000000000001</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M5" s="2">
         <v>3</v>
@@ -1241,19 +1209,19 @@
       <c r="N5" s="5">
         <v>45716</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>30</v>
+      <c r="O5" s="2">
+        <v>3</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>37</v>
+      <c r="A6" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -1273,22 +1241,22 @@
         <v>1.33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2">
         <v>3</v>
@@ -1296,19 +1264,19 @@
       <c r="N6" s="5">
         <v>45716</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>30</v>
+      <c r="O6" s="2">
+        <v>3</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3">
         <v>10</v>
@@ -1328,22 +1296,22 @@
         <v>0.10590000000000001</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M7" s="2">
         <v>15</v>
@@ -1351,72 +1319,72 @@
       <c r="N7" s="5">
         <v>45716</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>30</v>
+      <c r="O7" s="2">
+        <v>15</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="41">
+        <v>38</v>
+      </c>
+      <c r="B8" s="30">
         <v>7</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="31">
         <v>0.39</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="31">
         <v>3.9000000000000004</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="31">
         <v>0.29299999999999998</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="31">
         <v>2.9299999999999997</v>
       </c>
-      <c r="G8" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="38">
+      <c r="G8" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="27">
         <v>5011</v>
       </c>
-      <c r="I8" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="41">
+      <c r="I8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="30">
         <v>10</v>
       </c>
       <c r="N8" s="5">
         <v>45716</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>30</v>
+      <c r="O8" s="30">
+        <v>10</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -1435,23 +1403,23 @@
         <f t="shared" si="1"/>
         <v>8.8599999999999998E-3</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>44</v>
+      <c r="G9" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M9" s="2">
         <v>10</v>
@@ -1459,22 +1427,22 @@
       <c r="N9" s="5">
         <v>45716</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>30</v>
+      <c r="O9" s="2">
+        <v>10</v>
+      </c>
+      <c r="P9" s="2">
+        <v>8</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>54</v>
+      <c r="A10" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -1486,7 +1454,7 @@
         <f t="shared" si="0"/>
         <v>1.9E-2</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="14">
         <v>1.478E-2</v>
       </c>
       <c r="F10" s="4">
@@ -1494,22 +1462,22 @@
         <v>1.478E-2</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>27</v>
+        <v>53</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M10" s="2">
         <v>10</v>
@@ -1517,293 +1485,293 @@
       <c r="N10" s="5">
         <v>45716</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>30</v>
+      <c r="O10" s="2">
+        <v>10</v>
+      </c>
+      <c r="P10" s="13">
+        <v>8</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="D11" s="21">
+        <f t="shared" ref="D11:D19" si="2">C11*B11</f>
+        <v>0.92</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1.84</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="16">
+        <v>694108301002</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="M11" s="20">
+        <v>2</v>
+      </c>
+      <c r="N11" s="23">
+        <v>45716</v>
+      </c>
+      <c r="O11" s="20">
+        <v>2</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="D12" s="21">
+        <f t="shared" si="2"/>
+        <v>0.42</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1.26</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="24">
+      <c r="I12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="20">
+        <v>3</v>
+      </c>
+      <c r="N12" s="23">
+        <v>45716</v>
+      </c>
+      <c r="O12" s="20">
+        <v>3</v>
+      </c>
+      <c r="P12" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="25">
-        <v>0.92</v>
-      </c>
-      <c r="D11" s="25">
-        <f>C11*B11</f>
-        <v>0.92</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0.92</v>
-      </c>
-      <c r="F11" s="25">
-        <v>1.84</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="20">
-        <v>694108301002</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="24">
+      <c r="Q12" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="20">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D13" s="21">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="24">
+        <v>860020273010</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="20">
+        <v>3</v>
+      </c>
+      <c r="N13" s="23">
+        <v>45716</v>
+      </c>
+      <c r="O13" s="20">
+        <v>3</v>
+      </c>
+      <c r="P13" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0.22</v>
+      </c>
+      <c r="D14" s="21">
+        <f t="shared" si="2"/>
+        <v>0.22</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F14" s="21">
+        <v>2.1149999999999998</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="20">
+        <v>3</v>
+      </c>
+      <c r="N14" s="23">
+        <v>45716</v>
+      </c>
+      <c r="O14" s="20">
+        <v>3</v>
+      </c>
+      <c r="P14" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="20">
         <v>2</v>
       </c>
-      <c r="N11" s="27">
-        <v>45716</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="33">
-        <v>1</v>
-      </c>
-      <c r="C12" s="34">
-        <v>0.42</v>
-      </c>
-      <c r="D12" s="34">
-        <f>C12*B12</f>
-        <v>0.42</v>
-      </c>
-      <c r="E12" s="34">
-        <v>0.42</v>
-      </c>
-      <c r="F12" s="34">
-        <v>1.26</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="33">
-        <v>3</v>
-      </c>
-      <c r="N12" s="36">
-        <v>45716</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="33">
-        <v>1</v>
-      </c>
-      <c r="C13" s="34">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D13" s="34">
-        <f>C13*B13</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E13" s="34">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F13" s="34">
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="28">
-        <v>860020273010</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="33">
-        <v>3</v>
-      </c>
-      <c r="N13" s="36">
-        <v>45716</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="33">
-        <v>1</v>
-      </c>
-      <c r="C14" s="34">
-        <v>0.22</v>
-      </c>
-      <c r="D14" s="34">
-        <f>C14*B14</f>
-        <v>0.22</v>
-      </c>
-      <c r="E14" s="34">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="F14" s="34">
-        <v>2.1149999999999998</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" s="33">
-        <v>3</v>
-      </c>
-      <c r="N14" s="36">
-        <v>45716</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="33">
-        <v>2</v>
-      </c>
-      <c r="C15" s="34">
+      <c r="C15" s="21">
         <v>0.49</v>
       </c>
-      <c r="D15" s="34">
-        <f>C15*B15</f>
+      <c r="D15" s="21">
+        <f t="shared" si="2"/>
         <v>0.98</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="21">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="21">
         <f>E15*B15</f>
         <v>0.27</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="20">
+        <v>6</v>
+      </c>
+      <c r="N15" s="23">
+        <v>45716</v>
+      </c>
+      <c r="O15" s="20">
+        <v>6</v>
+      </c>
+      <c r="P15" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H15" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="33">
-        <v>6</v>
-      </c>
-      <c r="N15" s="36">
-        <v>45716</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>84</v>
+      <c r="A16" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -1812,7 +1780,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="D16" s="4">
-        <f>C16*B16</f>
+        <f t="shared" si="2"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="E16" s="4">
@@ -1822,325 +1790,372 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="M16" s="33">
+      <c r="G16" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16" s="20">
         <v>3</v>
       </c>
       <c r="N16" s="5">
         <v>45716</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="O16" s="20">
+        <v>3</v>
+      </c>
+      <c r="P16" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="30">
+        <v>2</v>
+      </c>
+      <c r="C17" s="31">
+        <v>1.49</v>
+      </c>
+      <c r="D17" s="31">
+        <f t="shared" si="2"/>
+        <v>2.98</v>
+      </c>
+      <c r="E17" s="31">
+        <v>1.49</v>
+      </c>
+      <c r="F17" s="31">
+        <v>2.98</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="30">
+        <v>2</v>
+      </c>
+      <c r="N17" s="34">
+        <v>45716</v>
+      </c>
+      <c r="O17" s="30">
+        <v>2</v>
+      </c>
+      <c r="P17" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="49">
-        <v>2</v>
-      </c>
-      <c r="C17" s="50">
-        <v>1.49</v>
-      </c>
-      <c r="D17" s="50">
-        <f>C17*B17</f>
-        <v>2.98</v>
-      </c>
-      <c r="E17" s="50">
-        <v>1.49</v>
-      </c>
-      <c r="F17" s="50">
-        <v>2.98</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="49">
-        <v>2</v>
-      </c>
-      <c r="N17" s="52">
-        <v>45716</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="49">
+      <c r="B18" s="30">
         <v>1</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="31">
         <v>0.44</v>
       </c>
-      <c r="D18" s="50">
-        <f>C18*B18</f>
+      <c r="D18" s="31">
+        <f t="shared" si="2"/>
         <v>0.44</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="31">
         <v>0.36199999999999999</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="31">
         <f>E18*B18</f>
         <v>0.36199999999999999</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="49">
+      <c r="I18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="30">
         <v>6</v>
       </c>
-      <c r="N18" s="52">
+      <c r="N18" s="34">
         <v>45716</v>
       </c>
-      <c r="O18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="46" t="s">
+      <c r="O18" s="30">
+        <v>6</v>
+      </c>
+      <c r="P18" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="57">
+      <c r="B19" s="30">
         <v>1</v>
       </c>
-      <c r="C19" s="58">
+      <c r="C19" s="31">
         <v>0.23</v>
       </c>
-      <c r="D19" s="58">
-        <f>C19*B19</f>
+      <c r="D19" s="31">
+        <f t="shared" si="2"/>
         <v>0.23</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="31">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="31">
         <f>E19*B19</f>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="G19" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="56" t="s">
+      <c r="G19" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="M19" s="30">
+        <v>3</v>
+      </c>
+      <c r="N19" s="34">
+        <v>45716</v>
+      </c>
+      <c r="O19" s="30">
+        <v>3</v>
+      </c>
+      <c r="P19" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="30">
+        <v>2</v>
+      </c>
+      <c r="C20" s="31">
+        <v>0</v>
+      </c>
+      <c r="D20" s="31">
+        <v>0</v>
+      </c>
+      <c r="E20" s="31">
+        <v>0</v>
+      </c>
+      <c r="F20" s="31">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="L19" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="M19" s="57">
-        <v>3</v>
-      </c>
-      <c r="N19" s="60">
+      <c r="K20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="30">
+        <v>2</v>
+      </c>
+      <c r="N20" s="34">
         <v>45716</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P19" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="57">
-        <v>2</v>
-      </c>
-      <c r="C20" s="58">
-        <v>0</v>
-      </c>
-      <c r="D20" s="58">
-        <v>0</v>
-      </c>
-      <c r="E20" s="58">
-        <v>0</v>
-      </c>
-      <c r="F20" s="58">
-        <v>0</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="56" t="s">
+      <c r="O20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
         <v>96</v>
-      </c>
-      <c r="I20" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="M20" s="57">
-        <v>2</v>
-      </c>
-      <c r="N20" s="60">
-        <v>45716</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
-        <v>99</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="58">
-        <v>0</v>
-      </c>
-      <c r="D21" s="58">
-        <v>0</v>
-      </c>
-      <c r="E21" s="58">
-        <v>0</v>
-      </c>
-      <c r="F21" s="58">
-        <v>0</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="62">
+      <c r="C21" s="31">
+        <v>0</v>
+      </c>
+      <c r="D21" s="31">
+        <v>0</v>
+      </c>
+      <c r="E21" s="31">
+        <v>0</v>
+      </c>
+      <c r="F21" s="31">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="30">
         <v>2</v>
       </c>
       <c r="N21" s="5">
         <v>45716</v>
       </c>
-      <c r="O21" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="N22" s="5"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
+      <c r="O21" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+      <c r="G22" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="66">
-        <v>59.94</v>
+      <c r="H22" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="M22" s="43">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="R22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="38">
+        <v>59.99</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2149,7 +2164,7 @@
       <c r="N23" s="5"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2158,13 +2173,13 @@
       <c r="N24" s="5"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="66">
-        <f>SUM(D3:D21)</f>
-        <v>32.129000000000005</v>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="45">
+        <f>SUM(D4:D22)</f>
+        <v>22.669000000000004</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2173,7 +2188,7 @@
       <c r="N25" s="5"/>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2182,7 +2197,10 @@
       <c r="N26" s="5"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
+        <v>118</v>
+      </c>
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2191,7 +2209,7 @@
       <c r="N27" s="5"/>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2200,7 +2218,7 @@
       <c r="N28" s="5"/>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2209,7 +2227,7 @@
       <c r="N29" s="5"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2218,7 +2236,7 @@
       <c r="N30" s="5"/>
       <c r="P30" s="3"/>
     </row>
-    <row r="31" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2227,7 +2245,7 @@
       <c r="N31" s="5"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2280,7 +2298,7 @@
       <c r="F37" s="4"/>
       <c r="N37" s="5"/>
       <c r="P37" s="3">
-        <f t="shared" ref="P22:P102" si="2">O37-B37</f>
+        <f t="shared" ref="P37:P102" si="3">O37-B37</f>
         <v>0</v>
       </c>
     </row>
@@ -2292,7 +2310,7 @@
       <c r="F38" s="4"/>
       <c r="N38" s="5"/>
       <c r="P38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2304,7 +2322,7 @@
       <c r="F39" s="4"/>
       <c r="N39" s="5"/>
       <c r="P39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2316,7 +2334,7 @@
       <c r="F40" s="4"/>
       <c r="N40" s="5"/>
       <c r="P40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2328,7 +2346,7 @@
       <c r="F41" s="4"/>
       <c r="N41" s="5"/>
       <c r="P41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2340,7 +2358,7 @@
       <c r="F42" s="4"/>
       <c r="N42" s="5"/>
       <c r="P42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2352,7 +2370,7 @@
       <c r="F43" s="4"/>
       <c r="N43" s="5"/>
       <c r="P43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2364,7 +2382,7 @@
       <c r="F44" s="4"/>
       <c r="N44" s="5"/>
       <c r="P44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2376,7 +2394,7 @@
       <c r="F45" s="4"/>
       <c r="N45" s="5"/>
       <c r="P45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2388,7 +2406,7 @@
       <c r="F46" s="4"/>
       <c r="N46" s="5"/>
       <c r="P46" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2400,7 +2418,7 @@
       <c r="F47" s="4"/>
       <c r="N47" s="5"/>
       <c r="P47" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2412,7 +2430,7 @@
       <c r="F48" s="4"/>
       <c r="N48" s="5"/>
       <c r="P48" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2424,7 +2442,7 @@
       <c r="F49" s="4"/>
       <c r="N49" s="5"/>
       <c r="P49" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2436,7 +2454,7 @@
       <c r="F50" s="4"/>
       <c r="N50" s="5"/>
       <c r="P50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2448,7 +2466,7 @@
       <c r="F51" s="4"/>
       <c r="N51" s="5"/>
       <c r="P51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2460,7 +2478,7 @@
       <c r="F52" s="4"/>
       <c r="N52" s="5"/>
       <c r="P52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2472,7 +2490,7 @@
       <c r="F53" s="4"/>
       <c r="N53" s="5"/>
       <c r="P53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2484,7 +2502,7 @@
       <c r="F54" s="4"/>
       <c r="N54" s="5"/>
       <c r="P54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2496,7 +2514,7 @@
       <c r="F55" s="4"/>
       <c r="N55" s="5"/>
       <c r="P55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2508,7 +2526,7 @@
       <c r="F56" s="4"/>
       <c r="N56" s="5"/>
       <c r="P56" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2520,7 +2538,7 @@
       <c r="F57" s="4"/>
       <c r="N57" s="5"/>
       <c r="P57" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2532,7 +2550,7 @@
       <c r="F58" s="4"/>
       <c r="N58" s="5"/>
       <c r="P58" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2544,7 +2562,7 @@
       <c r="F59" s="4"/>
       <c r="N59" s="5"/>
       <c r="P59" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2556,7 +2574,7 @@
       <c r="F60" s="4"/>
       <c r="N60" s="5"/>
       <c r="P60" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2568,7 +2586,7 @@
       <c r="F61" s="4"/>
       <c r="N61" s="5"/>
       <c r="P61" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2580,7 +2598,7 @@
       <c r="F62" s="4"/>
       <c r="N62" s="5"/>
       <c r="P62" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2592,7 +2610,7 @@
       <c r="F63" s="4"/>
       <c r="N63" s="5"/>
       <c r="P63" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2604,7 +2622,7 @@
       <c r="F64" s="4"/>
       <c r="N64" s="5"/>
       <c r="P64" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2616,7 +2634,7 @@
       <c r="F65" s="4"/>
       <c r="N65" s="5"/>
       <c r="P65" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2628,7 +2646,7 @@
       <c r="F66" s="4"/>
       <c r="N66" s="5"/>
       <c r="P66" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2640,7 +2658,7 @@
       <c r="F67" s="4"/>
       <c r="N67" s="5"/>
       <c r="P67" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2652,7 +2670,7 @@
       <c r="F68" s="4"/>
       <c r="N68" s="5"/>
       <c r="P68" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2664,7 +2682,7 @@
       <c r="F69" s="4"/>
       <c r="N69" s="5"/>
       <c r="P69" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2676,7 +2694,7 @@
       <c r="F70" s="4"/>
       <c r="N70" s="5"/>
       <c r="P70" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2688,7 +2706,7 @@
       <c r="F71" s="4"/>
       <c r="N71" s="5"/>
       <c r="P71" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2700,7 +2718,7 @@
       <c r="F72" s="4"/>
       <c r="N72" s="5"/>
       <c r="P72" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2712,7 +2730,7 @@
       <c r="F73" s="4"/>
       <c r="N73" s="5"/>
       <c r="P73" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2724,7 +2742,7 @@
       <c r="F74" s="4"/>
       <c r="N74" s="5"/>
       <c r="P74" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2736,7 +2754,7 @@
       <c r="F75" s="4"/>
       <c r="N75" s="5"/>
       <c r="P75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2748,7 +2766,7 @@
       <c r="F76" s="4"/>
       <c r="N76" s="5"/>
       <c r="P76" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2760,7 +2778,7 @@
       <c r="F77" s="4"/>
       <c r="N77" s="5"/>
       <c r="P77" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2772,7 +2790,7 @@
       <c r="F78" s="4"/>
       <c r="N78" s="5"/>
       <c r="P78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2784,7 +2802,7 @@
       <c r="F79" s="4"/>
       <c r="N79" s="5"/>
       <c r="P79" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2796,7 +2814,7 @@
       <c r="F80" s="4"/>
       <c r="N80" s="5"/>
       <c r="P80" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2808,7 +2826,7 @@
       <c r="F81" s="4"/>
       <c r="N81" s="5"/>
       <c r="P81" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2820,7 +2838,7 @@
       <c r="F82" s="4"/>
       <c r="N82" s="5"/>
       <c r="P82" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2832,7 +2850,7 @@
       <c r="F83" s="4"/>
       <c r="N83" s="5"/>
       <c r="P83" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2844,7 +2862,7 @@
       <c r="F84" s="4"/>
       <c r="N84" s="5"/>
       <c r="P84" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2856,7 +2874,7 @@
       <c r="F85" s="4"/>
       <c r="N85" s="5"/>
       <c r="P85" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2868,7 +2886,7 @@
       <c r="F86" s="4"/>
       <c r="N86" s="5"/>
       <c r="P86" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2880,7 +2898,7 @@
       <c r="F87" s="4"/>
       <c r="N87" s="5"/>
       <c r="P87" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2892,7 +2910,7 @@
       <c r="F88" s="4"/>
       <c r="N88" s="5"/>
       <c r="P88" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +2922,7 @@
       <c r="F89" s="4"/>
       <c r="N89" s="5"/>
       <c r="P89" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2916,7 +2934,7 @@
       <c r="F90" s="4"/>
       <c r="N90" s="5"/>
       <c r="P90" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2928,7 +2946,7 @@
       <c r="F91" s="4"/>
       <c r="N91" s="5"/>
       <c r="P91" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2940,7 +2958,7 @@
       <c r="F92" s="4"/>
       <c r="N92" s="5"/>
       <c r="P92" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2952,7 +2970,7 @@
       <c r="F93" s="4"/>
       <c r="N93" s="5"/>
       <c r="P93" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2964,7 +2982,7 @@
       <c r="F94" s="4"/>
       <c r="N94" s="5"/>
       <c r="P94" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2976,7 +2994,7 @@
       <c r="F95" s="4"/>
       <c r="N95" s="5"/>
       <c r="P95" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2988,7 +3006,7 @@
       <c r="F96" s="4"/>
       <c r="N96" s="5"/>
       <c r="P96" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3000,7 +3018,7 @@
       <c r="F97" s="4"/>
       <c r="N97" s="5"/>
       <c r="P97" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3012,7 +3030,7 @@
       <c r="F98" s="4"/>
       <c r="N98" s="5"/>
       <c r="P98" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3024,7 +3042,7 @@
       <c r="F99" s="4"/>
       <c r="N99" s="5"/>
       <c r="P99" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3036,7 +3054,7 @@
       <c r="F100" s="4"/>
       <c r="N100" s="5"/>
       <c r="P100" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3048,7 +3066,7 @@
       <c r="F101" s="4"/>
       <c r="N101" s="5"/>
       <c r="P101" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3060,7 +3078,7 @@
       <c r="F102" s="4"/>
       <c r="N102" s="5"/>
       <c r="P102" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3104,8 +3122,9 @@
     <hyperlink ref="I20" r:id="rId33" display="https://www.amazon.com/Qunqi-2-54mm-Straight-Connector-Arduino/dp/B07CGGSDWF/ref=sr_1_17?dchild=1&amp;keywords=female+header+strips&amp;qid=1595380282&amp;sr=8-17" xr:uid="{B0A3179E-4B25-5742-AACB-512AA0F5AF05}"/>
     <hyperlink ref="I19" r:id="rId34" display="https://www.digikey.com/en/products/detail/stmicroelectronics/1N5819/1037326" xr:uid="{4980541C-50B5-4425-B24F-ED565C89DC36}"/>
     <hyperlink ref="J19" r:id="rId35" display="https://www.st.com/content/ccc/resource/technical/document/datasheet/26/db/14/60/52/47/47/5b/CD00001625.pdf/files/CD00001625.pdf/jcr:content/translations/en.CD00001625.pdf" xr:uid="{356A6104-0204-4223-86A8-979022191CB8}"/>
+    <hyperlink ref="I22" r:id="rId36" xr:uid="{652D1AE7-1649-4E70-AE76-1AE92B55CB8F}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="22" fitToHeight="0" orientation="portrait" r:id="rId36"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" scale="43" fitToHeight="0" orientation="landscape" r:id="rId37"/>
 </worksheet>
 </file>